--- a/仕様書岸.xlsx
+++ b/仕様書岸.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\Monja\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -87,56 +87,1259 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>224270</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>536909</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>207818</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>617484</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>180317</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="13" name="グループ化 12"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6134100" y="3409950"/>
+          <a:ext cx="10942584" cy="5685767"/>
+          <a:chOff x="7115502" y="4508939"/>
+          <a:chExt cx="4351284" cy="2228192"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7115503" y="4508939"/>
+            <a:ext cx="4351283" cy="1492468"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7115503" y="5994572"/>
+            <a:ext cx="4351283" cy="742559"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="楕円 15"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7620000" y="5094171"/>
+            <a:ext cx="819807" cy="819807"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4400"/>
+              <a:t>主</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="楕円 16"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10021029" y="5111610"/>
+            <a:ext cx="819807" cy="819807"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4400"/>
+              <a:t>敵</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8813066" y="6081371"/>
+            <a:ext cx="2165130" cy="515243"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="5400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>コマンド</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="5400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7115502" y="6002037"/>
+            <a:ext cx="1151426" cy="735093"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="3600">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ステータス</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9659007" y="4834759"/>
+            <a:ext cx="966952" cy="136634"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10625959" y="4832967"/>
+            <a:ext cx="420413" cy="138425"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1678997"/>
-          <a:ext cx="10235091" cy="5317548"/>
+          <a:off x="10553700" y="3848100"/>
+          <a:ext cx="1238250" cy="781050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>49357</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>32038</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>411307</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>203488</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>17318</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>173182</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>96982</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -145,13 +1348,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9747539" y="6093402"/>
-          <a:ext cx="6202506" cy="3050598"/>
+          <a:off x="7955107" y="10109488"/>
+          <a:ext cx="6351443" cy="3112944"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -72585"/>
-            <a:gd name="adj2" fmla="val -43149"/>
+            <a:gd name="adj1" fmla="val -4329"/>
+            <a:gd name="adj2" fmla="val -106181"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -189,87 +1392,87 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
             <a:t>コマンドは攻撃、魔法、集中、回復がある</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
             <a:t>攻撃は物理攻撃力で攻撃する</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
             <a:t>魔法は魔法攻撃力で攻撃するマナを</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
             <a:t>25</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
             <a:t>消費する</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
             <a:t>集中はマナを</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
             <a:t>50</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
             <a:t>回復する、回復はショップで購入した回復アイテムを消費して最大</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
             <a:t>HP</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
             <a:t>の</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
             <a:t>25</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
             <a:t>％回復する、回復アイテムがない場合は</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
             <a:t>UI</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
             <a:t>を暗くする</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
             <a:t>回復以外の行動はターンを消費する</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
             <a:t>回復は１ターンに一回までとする</a:t>
           </a:r>
         </a:p>
@@ -279,16 +1482,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>129886</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>34636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>53686</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>86590</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -297,13 +1500,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7749886" y="519545"/>
-          <a:ext cx="4772891" cy="1264227"/>
+          <a:off x="0" y="4987636"/>
+          <a:ext cx="4724400" cy="1946564"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -90588"/>
-            <a:gd name="adj2" fmla="val 106204"/>
+            <a:gd name="adj1" fmla="val 94090"/>
+            <a:gd name="adj2" fmla="val -18614"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -341,15 +1544,15 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
             <a:t>背景は町の中の風景（路地裏や道路、屋内など）</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
             <a:t>光などを普通の色ではなく緑や紫を使ってネオン感を出したい</a:t>
           </a:r>
         </a:p>
@@ -359,16 +1562,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>51089</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>121228</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -377,13 +1580,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="7525616"/>
-          <a:ext cx="6285634" cy="2051339"/>
+          <a:off x="704850" y="9267825"/>
+          <a:ext cx="6362700" cy="2638425"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -15120"/>
-            <a:gd name="adj2" fmla="val -96061"/>
+            <a:gd name="adj1" fmla="val 57734"/>
+            <a:gd name="adj2" fmla="val -91510"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -421,39 +1624,39 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
             <a:t>HP</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
             <a:t>、物理攻撃力、魔法攻撃力、物理防御、魔法防御、マナを常に表示しておく</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
             <a:t>HP,</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
             <a:t>マナはゲージで表示</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
             <a:t>それ以外はアイコンと数値で表示する</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
             <a:t>アイテムでステータスが変わるとここの表記も変わる</a:t>
           </a:r>
         </a:p>
@@ -463,16 +1666,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>135946</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>197427</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>288346</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>121226</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -481,8 +1684,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9141401" y="3106882"/>
-          <a:ext cx="6219825" cy="1690254"/>
+          <a:off x="15375946" y="1607127"/>
+          <a:ext cx="8112704" cy="2552123"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -525,38 +1728,46 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
             <a:t>敵ごとに決められた順の行動をする　（例　攻撃→攻撃→防御）</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>技術的に可能ならランダム行動にする</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
             <a:t>敵の頭上に</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
             <a:t>HP</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
             <a:t>バーを表示する</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
             <a:t>敵のステータスは物理攻撃力、魔法攻撃力、物理防御力、魔法防御量がある</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -564,16 +1775,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>363682</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>51955</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>51954</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -582,24 +1793,24 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1056409" y="1212273"/>
-          <a:ext cx="4537364" cy="1749136"/>
+          <a:off x="6210300" y="476250"/>
+          <a:ext cx="4629150" cy="2571750"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -20833"/>
-            <a:gd name="adj2" fmla="val 87253"/>
+            <a:gd name="adj1" fmla="val 47351"/>
+            <a:gd name="adj2" fmla="val 95746"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent5">
+          <a:schemeClr val="accent1">
             <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
             <a:schemeClr val="accent5">
-              <a:lumMod val="50000"/>
+              <a:lumMod val="75000"/>
             </a:schemeClr>
           </a:solidFill>
         </a:ln>
@@ -626,17 +1837,50 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>攻撃、魔法コマンドを選択したときはアニメーションする</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>回復、集中はエフェクトのみで表現する</a:t>
-          </a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>ターン数を表示する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>主人公のターンのみカウント</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>主人公のターンの時は青色</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>敵のターンの時は赤色で表示する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>行けるならターンの先攻をランダムにする</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -644,16 +1888,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>606136</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>207819</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>282287</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>226869</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>311727</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>86591</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>628651</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -662,8 +1906,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="606136" y="10148455"/>
-          <a:ext cx="14945591" cy="4970318"/>
+          <a:off x="17427287" y="4436919"/>
+          <a:ext cx="10633364" cy="4592781"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -675,9 +1919,7 @@
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="50000"/>
-            </a:schemeClr>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -938,6 +2180,30 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>余裕があるなら敵のみ耐性値を追加する（各種攻撃力＊対応する耐性値）のような</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
             <a:solidFill>
               <a:schemeClr val="lt1"/>
@@ -1022,6 +2288,382 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>主人公は攻撃３枚の絵＋エフェクトでアニメーション</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>魔法攻撃の時は２枚の絵＋エフェクトでアニメーション</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>632114</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>1731</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17430750" y="9029700"/>
+          <a:ext cx="10633364" cy="4592781"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>獲得金額の計算</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>モンスターごとに手に入る金額を設定する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ターン目以降１ターンかかるたびに獲得金額を１０ずつ減らす</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6419850" y="3562350"/>
+          <a:ext cx="2247900" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="四角形吹き出し 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="1504950"/>
+          <a:ext cx="4438650" cy="2038350"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 69725"/>
+            <a:gd name="adj2" fmla="val 77376"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>今持っているアイテムを確認できる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>このボタンを押すと</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>所持アイテム一覧のウィンドウを表示できるようにしたい</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
         </a:p>
       </xdr:txBody>
@@ -1296,8 +2938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:XFD44"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/仕様書岸.xlsx
+++ b/仕様書岸.xlsx
@@ -2662,7 +2662,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>所持アイテム一覧のウィンドウを表示できるようにしたい</a:t>
+            <a:t>所持アイテム一覧のウィンドウを表示できるようにする</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
         </a:p>
@@ -2938,7 +2938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>

--- a/仕様書岸.xlsx
+++ b/仕様書岸.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="戦闘画面" sheetId="1" r:id="rId1"/>
+    <sheet name="戦闘" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1336,8 +1337,8 @@
       <xdr:rowOff>203488</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>96982</xdr:rowOff>
     </xdr:to>
@@ -1349,7 +1350,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7955107" y="10109488"/>
-          <a:ext cx="6351443" cy="3112944"/>
+          <a:ext cx="8999393" cy="3112944"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -1473,7 +1474,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>回復は１ターンに一回までとする</a:t>
+            <a:t>回復は１ターンに一回まで（仮）</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1666,16 +1667,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>288346</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>121227</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>59746</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>64077</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:colOff>628650</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1684,8 +1685,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15375946" y="1607127"/>
-          <a:ext cx="8112704" cy="2552123"/>
+          <a:off x="15833146" y="2540577"/>
+          <a:ext cx="8112704" cy="1650423"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -1729,22 +1730,6 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>敵ごとに決められた順の行動をする　（例　攻撃→攻撃→防御）</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>技術的に可能ならランダム行動にする</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
             <a:t>敵の頭上に</a:t>
           </a:r>
           <a:r>
@@ -1754,6 +1739,14 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
             <a:t>バーを表示する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>バーの中に体力の数値を表示する</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
         </a:p>
@@ -1888,646 +1881,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>282287</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>226869</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>628651</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17427287" y="4436919"/>
-          <a:ext cx="10633364" cy="4592781"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>戦闘でのダメージの計算</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>物理攻撃の場合は（物理攻撃力</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>アイテムの計算済み</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>ー敵の物理防御力</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>で計算する、</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>魔法攻撃も同様に</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>魔法</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>攻撃力</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>アイテムの</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>魔法</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>計算済み</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ー敵の防御力</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>で計算する、</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>被ダメージの時も（相手の攻撃力</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>自分の防御力で計算する）</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>余裕があるなら敵のみ耐性値を追加する（各種攻撃力＊対応する耐性値）のような</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>アニメーション</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>どちらも被ダメージ時赤で点滅させる</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>敵は攻撃時絵を前後させる</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>主人公は攻撃３枚の絵＋エフェクトでアニメーション</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>魔法攻撃の時は２枚の絵＋エフェクトでアニメーション</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>632114</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>1731</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17430750" y="9029700"/>
-          <a:ext cx="10633364" cy="4592781"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>獲得金額の計算</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>モンスターごとに手に入る金額を設定する</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ターン目以降１ターンかかるたびに獲得金額を１０ずつ減らす</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
       <xdr:row>14</xdr:row>
@@ -2665,6 +2018,729 @@
             <a:t>所持アイテム一覧のウィンドウを表示できるようにする</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18783300" y="6172200"/>
+          <a:ext cx="9105900" cy="5029200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>371105</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>185553</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="1"/>
+          <a:ext cx="9896104" cy="5121234"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>戦闘でのダメージの計算</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>物理攻撃の場合は（物理攻撃力</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>アイテムの計算済み</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>ー敵の物理防御力</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>で計算する、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>魔法攻撃も同様に</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>魔法</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>攻撃力</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>アイテムの</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>魔法</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>計算済み</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ー敵の防御力</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>で計算する、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>被ダメージの時も（相手の攻撃力</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>自分の防御力で計算する）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>余裕があるなら敵のみ耐性値を追加する（各種攻撃力＊対応する耐性値）のような</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>アニメーション</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>どちらも被ダメージ時赤で点滅させる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>敵は攻撃時絵を前後させる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>主人公は攻撃３枚の絵＋エフェクトでアニメーション</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>魔法攻撃の時は２枚の絵＋エフェクトでアニメーション</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>618506</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>24740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>358733</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10143506" y="24740"/>
+          <a:ext cx="7904513" cy="5145974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>敵の行動</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>敵ごとに決められた順の行動をする　（例　攻撃→攻撃→防御）</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>技術的に可能ならランダム行動にする</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>獲得金額の計算</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>モンスターごとに手に入る金額を設定する</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>５</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ターン目以降１ターンかかるたびに獲得金額を１０ずつ減らす</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2938,8 +3014,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="V47" sqref="V47:W47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/仕様書岸.xlsx
+++ b/仕様書岸.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5970" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="戦闘画面" sheetId="1" r:id="rId1"/>
@@ -2033,8 +2033,8 @@
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2044,7 +2044,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18783300" y="6172200"/>
-          <a:ext cx="9105900" cy="5029200"/>
+          <a:ext cx="9105900" cy="6076950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2076,7 +2076,59 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:t>画面上部に敵と自分の行動ログを出したい</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:t>ターンが切り替わるタイミングで表示を切り替えるか行動後数秒後にフェードアウトするようにしたい</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:t>ターンが切り替わったタイミングで</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+            <a:t>playerturn</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:t>と</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+            <a:t>enemyturn</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:t>を表示する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2648,6 +2700,40 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>技術的に可能ならランダム行動にする</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>敵の行動ログ→効果音→アニメーションの順で動かす</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
             <a:solidFill>
@@ -3014,8 +3100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="V47" sqref="V47:W47"/>
+    <sheetView topLeftCell="A13" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AE52" sqref="AE52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3030,7 +3116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>

--- a/仕様書岸.xlsx
+++ b/仕様書岸.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5970" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5970"/>
   </bookViews>
   <sheets>
     <sheet name="戦闘画面" sheetId="1" r:id="rId1"/>
@@ -2033,8 +2033,8 @@
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2044,7 +2044,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18783300" y="6172200"/>
-          <a:ext cx="9105900" cy="6076950"/>
+          <a:ext cx="9105900" cy="5029200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2076,59 +2076,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
-            <a:t>画面上部に敵と自分の行動ログを出したい</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
-            <a:t>ターンが切り替わるタイミングで表示を切り替えるか行動後数秒後にフェードアウトするようにしたい</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
-            <a:t>　</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
-            <a:t>ターンが切り替わったタイミングで</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
-            <a:t>playerturn</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
-            <a:t>と</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
-            <a:t>enemyturn</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
-            <a:t>を表示する</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2700,40 +2648,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>技術的に可能ならランダム行動にする</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>敵の行動ログ→効果音→アニメーションの順で動かす</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
             <a:solidFill>
@@ -3100,8 +3014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AE52" sqref="AE52"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="V47" sqref="V47:W47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3116,7 +3030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>

--- a/仕様書岸.xlsx
+++ b/仕様書岸.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5970" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="戦闘画面" sheetId="1" r:id="rId1"/>
-    <sheet name="戦闘" sheetId="2" r:id="rId2"/>
+    <sheet name="所持アイテム一覧画面" sheetId="3" r:id="rId2"/>
+    <sheet name="戦闘" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2025,16 +2026,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2043,8 +2044,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18783300" y="6172200"/>
-          <a:ext cx="9105900" cy="5029200"/>
+          <a:off x="17773650" y="5810250"/>
+          <a:ext cx="9105900" cy="1733550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2076,7 +2077,27 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>敵と自分の行動ログを画面中央上部に出したい</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>ログはターンの切り替わりか行動の数秒後にフェードアウトするようにする</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2086,6 +2107,632 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3067050" y="314326"/>
+          <a:ext cx="7934325" cy="3124200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171825" y="409575"/>
+          <a:ext cx="1428750" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3419474" y="1447799"/>
+          <a:ext cx="1333501" cy="1333501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3457575" y="1438274"/>
+          <a:ext cx="1190625" cy="1190625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5419725" y="1466849"/>
+          <a:ext cx="1333501" cy="1333501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5534025" y="1524000"/>
+          <a:ext cx="1143000" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7372350" y="1476375"/>
+          <a:ext cx="1333501" cy="1333501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7343775" y="1447800"/>
+          <a:ext cx="1304926" cy="1304925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9448800" y="1514475"/>
+          <a:ext cx="1333501" cy="1333501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9505950" y="1543050"/>
+          <a:ext cx="1266826" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="四角形吹き出し 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="542925"/>
+          <a:ext cx="2800350" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 77093"/>
+            <a:gd name="adj2" fmla="val -20942"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>前の画面に戻るボタン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1457325" y="3762375"/>
+          <a:ext cx="10972800" cy="1571625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>画面全体に所持アイテム一覧のウィンドウを表示したい</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>アイテムをクリックするかカーソルを合わせるとアイテムの効果を確認できる　いけそうな方</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2648,6 +3295,40 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>技術的に可能ならランダム行動にする</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>行動ログ→効果音→アニメーションの順で動かす</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
             <a:solidFill>
@@ -3014,7 +3695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="V47" sqref="V47:W47"/>
     </sheetView>
   </sheetViews>
@@ -3030,6 +3711,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <selection activeCell="U11" sqref="U11"/>
     </sheetView>
